--- a/Transformed Energy SourceData.xlsx
+++ b/Transformed Energy SourceData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etech\RodanXD\ELTpart2\etl_pipeline_schema_mapping (1)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04412A41-37FB-4E83-9604-84672FA5272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iQMjHKe7orzp0s5io5X/jQptFaHCwanJlWmZ9G+IgRA="/>
@@ -75,9 +84,6 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>INV-ENERGY-2023-002</t>
   </si>
   <si>
@@ -586,29 +592,33 @@
   </si>
   <si>
     <t>INV-ENERGY-2023-153</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -618,35 +628,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -836,35 +855,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L153"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="12.86"/>
-    <col customWidth="1" min="5" max="5" width="23.29"/>
-    <col customWidth="1" min="6" max="6" width="12.57"/>
-    <col customWidth="1" min="7" max="7" width="14.86"/>
-    <col customWidth="1" min="8" max="8" width="21.0"/>
-    <col customWidth="1" min="9" max="9" width="17.71"/>
-    <col customWidth="1" min="10" max="10" width="16.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="12" width="17.86"/>
-    <col customWidth="1" min="13" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,12 +923,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>44931.0</v>
+        <v>44931</v>
       </c>
       <c r="C2" s="1">
         <v>249.5</v>
@@ -937,15 +958,15 @@
         <v>0.1996</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="2">
-        <v>44933.0</v>
+        <v>44933</v>
       </c>
       <c r="C3" s="1">
         <v>189.75</v>
@@ -954,74 +975,74 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="1">
         <v>850.25</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1">
-        <v>0.2232</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>44936</v>
+      </c>
+      <c r="C4" s="1">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>44936.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>320.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
-        <v>1600.0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B5" s="2">
-        <v>44938.0</v>
+        <v>44938</v>
       </c>
       <c r="C5" s="1">
         <v>175.3</v>
@@ -1030,36 +1051,36 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>650.75</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1">
-        <v>0.2693</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>44941.0</v>
+        <v>44941</v>
       </c>
       <c r="C6" s="1">
         <v>420.8</v>
@@ -1068,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1080,24 +1101,24 @@
         <v>17</v>
       </c>
       <c r="I6" s="1">
-        <v>2104.0</v>
+        <v>2104</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="1">
-        <v>0.1999</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>44944.0</v>
+        <v>44944</v>
       </c>
       <c r="C7" s="1">
         <v>95.25</v>
@@ -1106,36 +1127,36 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1">
+        <v>350</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.2721</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B8" s="2">
-        <v>44946.0</v>
+        <v>44946</v>
       </c>
       <c r="C8" s="1">
         <v>310.45</v>
@@ -1144,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1153,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1">
         <v>1552.25</v>
@@ -1165,53 +1186,53 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44948</v>
+      </c>
+      <c r="C9" s="1">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2">
-        <v>44948.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>280.6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
         <v>950.5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1">
-        <v>0.2952</v>
+        <v>0.29520000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>44951.0</v>
+        <v>44951</v>
       </c>
       <c r="C10" s="1">
         <v>198.75</v>
@@ -1220,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -1232,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="1">
-        <v>1325.0</v>
+        <v>1325</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -1241,53 +1262,53 @@
         <v>0.15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44954</v>
+      </c>
+      <c r="C11" s="1">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2">
-        <v>44954.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>145.3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I11" s="1">
         <v>480.25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1">
-        <v>0.3025</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="C12" s="1">
         <v>225.8</v>
@@ -1296,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1308,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="1">
-        <v>1129.0</v>
+        <v>1129</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -1317,15 +1338,15 @@
         <v>0.2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
-        <v>44960.0</v>
+        <v>44960</v>
       </c>
       <c r="C13" s="1">
         <v>310.2</v>
@@ -1334,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1346,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1355,15 +1376,15 @@
         <v>0.2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>44962.0</v>
+        <v>44962</v>
       </c>
       <c r="C14" s="1">
         <v>175.9</v>
@@ -1372,36 +1393,36 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
         <v>580.75</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="1">
-        <v>0.3028</v>
+        <v>0.30280000000000001</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>44965.0</v>
+        <v>44965</v>
       </c>
       <c r="C15" s="1">
         <v>420.35</v>
@@ -1413,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1">
         <v>2101.75</v>
@@ -1431,15 +1452,15 @@
         <v>0.2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>44967.0</v>
+        <v>44967</v>
       </c>
       <c r="C16" s="1">
         <v>195.25</v>
@@ -1448,48 +1469,48 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1">
+        <v>650</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>650.0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K16" s="1">
         <v>0.3004</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>44969.0</v>
+        <v>44969</v>
       </c>
       <c r="C17" s="1">
-        <v>280.6</v>
+        <v>280.60000000000002</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
@@ -1498,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="I17" s="1">
-        <v>1403.0</v>
+        <v>1403</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
@@ -1507,15 +1528,15 @@
         <v>0.2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
-        <v>44972.0</v>
+        <v>44972</v>
       </c>
       <c r="C18" s="1">
         <v>165.8</v>
@@ -1524,36 +1545,36 @@
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="1">
         <v>520.5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1">
-        <v>0.3185</v>
+        <v>0.31850000000000001</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
-        <v>44975.0</v>
+        <v>44975</v>
       </c>
       <c r="C19" s="1">
         <v>230.45</v>
@@ -1562,10 +1583,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
@@ -1583,15 +1604,15 @@
         <v>0.2</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
-        <v>44977.0</v>
+        <v>44977</v>
       </c>
       <c r="C20" s="1">
         <v>310.75</v>
@@ -1600,36 +1621,36 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>950</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I20" s="1">
-        <v>950.0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K20" s="1">
         <v>0.3271</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
-        <v>44979.0</v>
+        <v>44979</v>
       </c>
       <c r="C21" s="1">
         <v>185.9</v>
@@ -1638,16 +1659,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1">
         <v>929.5</v>
@@ -1659,15 +1680,15 @@
         <v>0.2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2">
-        <v>44982.0</v>
+        <v>44982</v>
       </c>
       <c r="C22" s="1">
         <v>275.3</v>
@@ -1676,36 +1697,36 @@
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
         <v>890.75</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1">
         <v>0.309</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2">
-        <v>44985.0</v>
+        <v>44985</v>
       </c>
       <c r="C23" s="1">
         <v>210.45</v>
@@ -1714,10 +1735,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
@@ -1735,15 +1756,15 @@
         <v>0.2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2">
-        <v>44988.0</v>
+        <v>44988</v>
       </c>
       <c r="C24" s="1">
         <v>195.8</v>
@@ -1752,48 +1773,48 @@
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>580</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K24" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
-        <v>44991.0</v>
+        <v>44991</v>
       </c>
       <c r="C25" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
@@ -1802,7 +1823,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>18</v>
@@ -1811,15 +1832,15 @@
         <v>0.2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
-        <v>44994.0</v>
+        <v>44994</v>
       </c>
       <c r="C26" s="1">
         <v>175.25</v>
@@ -1828,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
@@ -1849,15 +1870,15 @@
         <v>0.2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2">
-        <v>44997.0</v>
+        <v>44997</v>
       </c>
       <c r="C27" s="1">
         <v>290.3</v>
@@ -1866,36 +1887,36 @@
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1">
         <v>920.5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="C28" s="1">
         <v>230.75</v>
@@ -1913,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1">
         <v>1153.75</v>
@@ -1925,15 +1946,15 @@
         <v>0.2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2">
-        <v>45003.0</v>
+        <v>45003</v>
       </c>
       <c r="C29" s="1">
         <v>185.9</v>
@@ -1942,36 +1963,36 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="1">
         <v>550.75</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2">
-        <v>45006.0</v>
+        <v>45006</v>
       </c>
       <c r="C30" s="1">
         <v>310.2</v>
@@ -1980,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -1992,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="I30" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>18</v>
@@ -2001,15 +2022,15 @@
         <v>0.2</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2">
-        <v>45009.0</v>
+        <v>45009</v>
       </c>
       <c r="C31" s="1">
         <v>165.45</v>
@@ -2018,36 +2039,36 @@
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I31" s="1">
         <v>510.25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2">
-        <v>45012.0</v>
+        <v>45012</v>
       </c>
       <c r="C32" s="1">
         <v>280.8</v>
@@ -2056,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -2068,7 +2089,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>18</v>
@@ -2077,15 +2098,15 @@
         <v>0.2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2">
-        <v>45015.0</v>
+        <v>45015</v>
       </c>
       <c r="C33" s="1">
         <v>195.25</v>
@@ -2094,36 +2115,36 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1">
+        <v>580</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K33" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
-        <v>45018.0</v>
+        <v>45018</v>
       </c>
       <c r="C34" s="1">
         <v>225.6</v>
@@ -2132,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2141,10 +2162,10 @@
         <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>18</v>
@@ -2153,15 +2174,15 @@
         <v>0.2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="C35" s="1">
         <v>275.3</v>
@@ -2170,36 +2191,36 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1">
         <v>890.75</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="1">
         <v>0.309</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2">
-        <v>45024.0</v>
+        <v>45024</v>
       </c>
       <c r="C36" s="1">
         <v>210.45</v>
@@ -2208,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2229,15 +2250,15 @@
         <v>0.2</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2">
-        <v>45027.0</v>
+        <v>45027</v>
       </c>
       <c r="C37" s="1">
         <v>195.8</v>
@@ -2246,45 +2267,45 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1">
+        <v>580</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K37" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2">
-        <v>45030.0</v>
+        <v>45030</v>
       </c>
       <c r="C38" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2296,7 +2317,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>18</v>
@@ -2305,15 +2326,15 @@
         <v>0.2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2">
-        <v>45033.0</v>
+        <v>45033</v>
       </c>
       <c r="C39" s="1">
         <v>175.25</v>
@@ -2322,10 +2343,10 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>16</v>
@@ -2343,15 +2364,15 @@
         <v>0.2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2">
-        <v>45036.0</v>
+        <v>45036</v>
       </c>
       <c r="C40" s="1">
         <v>290.3</v>
@@ -2360,36 +2381,36 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="1">
         <v>920.5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2">
-        <v>45039.0</v>
+        <v>45039</v>
       </c>
       <c r="C41" s="1">
         <v>230.75</v>
@@ -2401,13 +2422,13 @@
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I41" s="1">
         <v>1153.75</v>
@@ -2419,15 +2440,15 @@
         <v>0.2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2">
-        <v>45042.0</v>
+        <v>45042</v>
       </c>
       <c r="C42" s="1">
         <v>185.9</v>
@@ -2436,36 +2457,36 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I42" s="1">
         <v>550.75</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2">
-        <v>45045.0</v>
+        <v>45045</v>
       </c>
       <c r="C43" s="1">
         <v>310.2</v>
@@ -2474,10 +2495,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>16</v>
@@ -2486,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="I43" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>18</v>
@@ -2495,15 +2516,15 @@
         <v>0.2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2">
-        <v>45048.0</v>
+        <v>45048</v>
       </c>
       <c r="C44" s="1">
         <v>165.45</v>
@@ -2512,36 +2533,36 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I44" s="1">
         <v>510.25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2">
-        <v>45051.0</v>
+        <v>45051</v>
       </c>
       <c r="C45" s="1">
         <v>280.8</v>
@@ -2550,10 +2571,10 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>16</v>
@@ -2562,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="I45" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>18</v>
@@ -2571,15 +2592,15 @@
         <v>0.2</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
-        <v>45054.0</v>
+        <v>45054</v>
       </c>
       <c r="C46" s="1">
         <v>195.25</v>
@@ -2588,36 +2609,36 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1">
+        <v>580</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K46" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2">
-        <v>45057.0</v>
+        <v>45057</v>
       </c>
       <c r="C47" s="1">
         <v>225.6</v>
@@ -2626,19 +2647,19 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>18</v>
@@ -2647,15 +2668,15 @@
         <v>0.2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2">
-        <v>45060.0</v>
+        <v>45060</v>
       </c>
       <c r="C48" s="1">
         <v>275.3</v>
@@ -2664,36 +2685,36 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1">
         <v>890.75</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" s="1">
         <v>0.309</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2">
-        <v>45063.0</v>
+        <v>45063</v>
       </c>
       <c r="C49" s="1">
         <v>210.45</v>
@@ -2702,10 +2723,10 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>16</v>
@@ -2723,15 +2744,15 @@
         <v>0.2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2">
-        <v>45066.0</v>
+        <v>45066</v>
       </c>
       <c r="C50" s="1">
         <v>195.8</v>
@@ -2740,48 +2761,48 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1">
+        <v>580</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K50" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2">
-        <v>45069.0</v>
+        <v>45069</v>
       </c>
       <c r="C51" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>16</v>
@@ -2790,7 +2811,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>18</v>
@@ -2799,15 +2820,15 @@
         <v>0.2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2">
-        <v>45072.0</v>
+        <v>45072</v>
       </c>
       <c r="C52" s="1">
         <v>175.25</v>
@@ -2816,7 +2837,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>15</v>
@@ -2837,15 +2858,15 @@
         <v>0.2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2">
-        <v>45075.0</v>
+        <v>45075</v>
       </c>
       <c r="C53" s="1">
         <v>290.3</v>
@@ -2854,36 +2875,36 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" s="1">
         <v>920.5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="C54" s="1">
         <v>230.75</v>
@@ -2901,7 +2922,7 @@
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I54" s="1">
         <v>1153.75</v>
@@ -2913,15 +2934,15 @@
         <v>0.2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2">
-        <v>45081.0</v>
+        <v>45081</v>
       </c>
       <c r="C55" s="1">
         <v>185.9</v>
@@ -2930,36 +2951,36 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I55" s="1">
         <v>550.75</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K55" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2">
-        <v>45084.0</v>
+        <v>45084</v>
       </c>
       <c r="C56" s="1">
         <v>310.2</v>
@@ -2968,7 +2989,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
@@ -2980,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>18</v>
@@ -2989,15 +3010,15 @@
         <v>0.2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2">
-        <v>45087.0</v>
+        <v>45087</v>
       </c>
       <c r="C57" s="1">
         <v>165.45</v>
@@ -3006,36 +3027,36 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I57" s="1">
         <v>510.25</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2">
-        <v>45090.0</v>
+        <v>45090</v>
       </c>
       <c r="C58" s="1">
         <v>280.8</v>
@@ -3044,7 +3065,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
@@ -3056,7 +3077,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>18</v>
@@ -3065,15 +3086,15 @@
         <v>0.2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2">
-        <v>45093.0</v>
+        <v>45093</v>
       </c>
       <c r="C59" s="1">
         <v>195.25</v>
@@ -3082,36 +3103,36 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1">
+        <v>580</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K59" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2">
-        <v>45096.0</v>
+        <v>45096</v>
       </c>
       <c r="C60" s="1">
         <v>225.6</v>
@@ -3120,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
@@ -3129,10 +3150,10 @@
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I60" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>18</v>
@@ -3141,15 +3162,15 @@
         <v>0.2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2">
-        <v>45099.0</v>
+        <v>45099</v>
       </c>
       <c r="C61" s="1">
         <v>275.3</v>
@@ -3158,36 +3179,36 @@
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1">
         <v>890.75</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K61" s="1">
         <v>0.309</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2">
-        <v>45102.0</v>
+        <v>45102</v>
       </c>
       <c r="C62" s="1">
         <v>210.45</v>
@@ -3196,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
@@ -3217,15 +3238,15 @@
         <v>0.2</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2">
-        <v>45105.0</v>
+        <v>45105</v>
       </c>
       <c r="C63" s="1">
         <v>195.8</v>
@@ -3234,45 +3255,45 @@
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1">
+        <v>580</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K63" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="C64" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
@@ -3284,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="I64" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>18</v>
@@ -3293,15 +3314,15 @@
         <v>0.2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2">
-        <v>45111.0</v>
+        <v>45111</v>
       </c>
       <c r="C65" s="1">
         <v>175.25</v>
@@ -3310,10 +3331,10 @@
         <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>16</v>
@@ -3331,15 +3352,15 @@
         <v>0.2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
-        <v>45114.0</v>
+        <v>45114</v>
       </c>
       <c r="C66" s="1">
         <v>290.3</v>
@@ -3348,36 +3369,36 @@
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I66" s="1">
         <v>920.5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K66" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2">
-        <v>45117.0</v>
+        <v>45117</v>
       </c>
       <c r="C67" s="1">
         <v>230.75</v>
@@ -3389,13 +3410,13 @@
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I67" s="1">
         <v>1153.75</v>
@@ -3407,15 +3428,15 @@
         <v>0.2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2">
-        <v>45120.0</v>
+        <v>45120</v>
       </c>
       <c r="C68" s="1">
         <v>185.9</v>
@@ -3424,36 +3445,36 @@
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I68" s="1">
         <v>550.75</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K68" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2">
-        <v>45123.0</v>
+        <v>45123</v>
       </c>
       <c r="C69" s="1">
         <v>310.2</v>
@@ -3462,10 +3483,10 @@
         <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
@@ -3474,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>18</v>
@@ -3483,15 +3504,15 @@
         <v>0.2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2">
-        <v>45126.0</v>
+        <v>45126</v>
       </c>
       <c r="C70" s="1">
         <v>165.45</v>
@@ -3500,36 +3521,36 @@
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I70" s="1">
         <v>510.25</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2">
-        <v>45129.0</v>
+        <v>45129</v>
       </c>
       <c r="C71" s="1">
         <v>280.8</v>
@@ -3538,10 +3559,10 @@
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
@@ -3550,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="I71" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>18</v>
@@ -3559,15 +3580,15 @@
         <v>0.2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2">
-        <v>45132.0</v>
+        <v>45132</v>
       </c>
       <c r="C72" s="1">
         <v>195.25</v>
@@ -3576,36 +3597,36 @@
         <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1">
+        <v>580</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K72" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2">
-        <v>45135.0</v>
+        <v>45135</v>
       </c>
       <c r="C73" s="1">
         <v>225.6</v>
@@ -3614,19 +3635,19 @@
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>18</v>
@@ -3635,15 +3656,15 @@
         <v>0.2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2">
-        <v>45138.0</v>
+        <v>45138</v>
       </c>
       <c r="C74" s="1">
         <v>275.3</v>
@@ -3652,36 +3673,36 @@
         <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I74" s="1">
         <v>890.75</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K74" s="1">
         <v>0.309</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2">
-        <v>45141.0</v>
+        <v>45141</v>
       </c>
       <c r="C75" s="1">
         <v>210.45</v>
@@ -3690,10 +3711,10 @@
         <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
@@ -3711,15 +3732,15 @@
         <v>0.2</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2">
-        <v>45144.0</v>
+        <v>45144</v>
       </c>
       <c r="C76" s="1">
         <v>195.8</v>
@@ -3728,48 +3749,48 @@
         <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1">
+        <v>580</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K76" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2">
-        <v>45147.0</v>
+        <v>45147</v>
       </c>
       <c r="C77" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>16</v>
@@ -3778,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="I77" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>18</v>
@@ -3787,15 +3808,15 @@
         <v>0.2</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2">
-        <v>45150.0</v>
+        <v>45150</v>
       </c>
       <c r="C78" s="1">
         <v>175.25</v>
@@ -3804,7 +3825,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>15</v>
@@ -3825,15 +3846,15 @@
         <v>0.2</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2">
-        <v>45153.0</v>
+        <v>45153</v>
       </c>
       <c r="C79" s="1">
         <v>290.3</v>
@@ -3842,36 +3863,36 @@
         <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79" s="1">
         <v>920.5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K79" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2">
-        <v>45156.0</v>
+        <v>45156</v>
       </c>
       <c r="C80" s="1">
         <v>230.75</v>
@@ -3889,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I80" s="1">
         <v>1153.75</v>
@@ -3901,15 +3922,15 @@
         <v>0.2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2">
-        <v>45159.0</v>
+        <v>45159</v>
       </c>
       <c r="C81" s="1">
         <v>185.9</v>
@@ -3918,36 +3939,36 @@
         <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I81" s="1">
         <v>550.75</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K81" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2">
-        <v>45162.0</v>
+        <v>45162</v>
       </c>
       <c r="C82" s="1">
         <v>310.2</v>
@@ -3956,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
@@ -3968,7 +3989,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>18</v>
@@ -3977,15 +3998,15 @@
         <v>0.2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2">
-        <v>45165.0</v>
+        <v>45165</v>
       </c>
       <c r="C83" s="1">
         <v>165.45</v>
@@ -3994,36 +4015,36 @@
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I83" s="1">
         <v>510.25</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K83" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2">
-        <v>45168.0</v>
+        <v>45168</v>
       </c>
       <c r="C84" s="1">
         <v>280.8</v>
@@ -4032,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
@@ -4044,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="I84" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>18</v>
@@ -4053,15 +4074,15 @@
         <v>0.2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2">
-        <v>45171.0</v>
+        <v>45171</v>
       </c>
       <c r="C85" s="1">
         <v>195.25</v>
@@ -4070,36 +4091,36 @@
         <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1">
+        <v>580</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I85" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K85" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2">
-        <v>45174.0</v>
+        <v>45174</v>
       </c>
       <c r="C86" s="1">
         <v>225.6</v>
@@ -4108,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
@@ -4117,10 +4138,10 @@
         <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I86" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>18</v>
@@ -4129,15 +4150,15 @@
         <v>0.2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2">
-        <v>45177.0</v>
+        <v>45177</v>
       </c>
       <c r="C87" s="1">
         <v>275.3</v>
@@ -4146,36 +4167,36 @@
         <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I87" s="1">
         <v>890.75</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K87" s="1">
         <v>0.309</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2">
-        <v>45180.0</v>
+        <v>45180</v>
       </c>
       <c r="C88" s="1">
         <v>210.45</v>
@@ -4184,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -4205,15 +4226,15 @@
         <v>0.2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2">
-        <v>45183.0</v>
+        <v>45183</v>
       </c>
       <c r="C89" s="1">
         <v>195.8</v>
@@ -4222,45 +4243,45 @@
         <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1">
+        <v>580</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K89" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2">
-        <v>45186.0</v>
+        <v>45186</v>
       </c>
       <c r="C90" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
@@ -4272,7 +4293,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>18</v>
@@ -4281,15 +4302,15 @@
         <v>0.2</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2">
-        <v>45189.0</v>
+        <v>45189</v>
       </c>
       <c r="C91" s="1">
         <v>175.25</v>
@@ -4298,10 +4319,10 @@
         <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>16</v>
@@ -4319,15 +4340,15 @@
         <v>0.2</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2">
-        <v>45192.0</v>
+        <v>45192</v>
       </c>
       <c r="C92" s="1">
         <v>290.3</v>
@@ -4336,36 +4357,36 @@
         <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I92" s="1">
         <v>920.5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K92" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2">
-        <v>45195.0</v>
+        <v>45195</v>
       </c>
       <c r="C93" s="1">
         <v>230.75</v>
@@ -4377,13 +4398,13 @@
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I93" s="1">
         <v>1153.75</v>
@@ -4395,15 +4416,15 @@
         <v>0.2</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2">
-        <v>45198.0</v>
+        <v>45198</v>
       </c>
       <c r="C94" s="1">
         <v>185.9</v>
@@ -4412,36 +4433,36 @@
         <v>13</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I94" s="1">
         <v>550.75</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K94" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2">
-        <v>45201.0</v>
+        <v>45201</v>
       </c>
       <c r="C95" s="1">
         <v>310.2</v>
@@ -4450,10 +4471,10 @@
         <v>13</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>16</v>
@@ -4462,7 +4483,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -4471,15 +4492,15 @@
         <v>0.2</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2">
-        <v>45204.0</v>
+        <v>45204</v>
       </c>
       <c r="C96" s="1">
         <v>165.45</v>
@@ -4488,36 +4509,36 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I96" s="1">
         <v>510.25</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K96" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2">
-        <v>45207.0</v>
+        <v>45207</v>
       </c>
       <c r="C97" s="1">
         <v>280.8</v>
@@ -4526,10 +4547,10 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>16</v>
@@ -4538,7 +4559,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>18</v>
@@ -4547,15 +4568,15 @@
         <v>0.2</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2">
-        <v>45210.0</v>
+        <v>45210</v>
       </c>
       <c r="C98" s="1">
         <v>195.25</v>
@@ -4564,36 +4585,36 @@
         <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1">
+        <v>580</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K98" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2">
-        <v>45213.0</v>
+        <v>45213</v>
       </c>
       <c r="C99" s="1">
         <v>225.6</v>
@@ -4602,19 +4623,19 @@
         <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I99" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>18</v>
@@ -4623,15 +4644,15 @@
         <v>0.2</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="C100" s="1">
         <v>275.3</v>
@@ -4640,36 +4661,36 @@
         <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I100" s="1">
         <v>890.75</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K100" s="1">
         <v>0.309</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2">
-        <v>45219.0</v>
+        <v>45219</v>
       </c>
       <c r="C101" s="1">
         <v>210.45</v>
@@ -4678,10 +4699,10 @@
         <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>16</v>
@@ -4699,15 +4720,15 @@
         <v>0.2</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2">
-        <v>45222.0</v>
+        <v>45222</v>
       </c>
       <c r="C102" s="1">
         <v>195.8</v>
@@ -4716,48 +4737,48 @@
         <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1">
+        <v>580</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I102" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K102" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2">
-        <v>45225.0</v>
+        <v>45225</v>
       </c>
       <c r="C103" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>16</v>
@@ -4766,7 +4787,7 @@
         <v>17</v>
       </c>
       <c r="I103" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>18</v>
@@ -4775,15 +4796,15 @@
         <v>0.2</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2">
-        <v>45228.0</v>
+        <v>45228</v>
       </c>
       <c r="C104" s="1">
         <v>175.25</v>
@@ -4792,7 +4813,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>15</v>
@@ -4813,15 +4834,15 @@
         <v>0.2</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="C105" s="1">
         <v>290.3</v>
@@ -4830,36 +4851,36 @@
         <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I105" s="1">
         <v>920.5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K105" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2">
-        <v>45234.0</v>
+        <v>45234</v>
       </c>
       <c r="C106" s="1">
         <v>230.75</v>
@@ -4877,7 +4898,7 @@
         <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I106" s="1">
         <v>1153.75</v>
@@ -4889,15 +4910,15 @@
         <v>0.2</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2">
-        <v>45237.0</v>
+        <v>45237</v>
       </c>
       <c r="C107" s="1">
         <v>185.9</v>
@@ -4906,36 +4927,36 @@
         <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I107" s="1">
         <v>550.75</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K107" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2">
-        <v>45240.0</v>
+        <v>45240</v>
       </c>
       <c r="C108" s="1">
         <v>310.2</v>
@@ -4944,7 +4965,7 @@
         <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>15</v>
@@ -4956,7 +4977,7 @@
         <v>17</v>
       </c>
       <c r="I108" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>18</v>
@@ -4965,15 +4986,15 @@
         <v>0.2</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2">
-        <v>45243.0</v>
+        <v>45243</v>
       </c>
       <c r="C109" s="1">
         <v>165.45</v>
@@ -4982,36 +5003,36 @@
         <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I109" s="1">
         <v>510.25</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K109" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2">
-        <v>45246.0</v>
+        <v>45246</v>
       </c>
       <c r="C110" s="1">
         <v>280.8</v>
@@ -5020,7 +5041,7 @@
         <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>15</v>
@@ -5032,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="I110" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>18</v>
@@ -5041,15 +5062,15 @@
         <v>0.2</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2">
-        <v>45249.0</v>
+        <v>45249</v>
       </c>
       <c r="C111" s="1">
         <v>195.25</v>
@@ -5058,36 +5079,36 @@
         <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1">
+        <v>580</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I111" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K111" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2">
-        <v>45252.0</v>
+        <v>45252</v>
       </c>
       <c r="C112" s="1">
         <v>225.6</v>
@@ -5096,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>15</v>
@@ -5105,10 +5126,10 @@
         <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I112" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>18</v>
@@ -5117,15 +5138,15 @@
         <v>0.2</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2">
-        <v>45255.0</v>
+        <v>45255</v>
       </c>
       <c r="C113" s="1">
         <v>275.3</v>
@@ -5134,36 +5155,36 @@
         <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I113" s="1">
         <v>890.75</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K113" s="1">
         <v>0.309</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2">
-        <v>45258.0</v>
+        <v>45258</v>
       </c>
       <c r="C114" s="1">
         <v>210.45</v>
@@ -5172,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>15</v>
@@ -5193,15 +5214,15 @@
         <v>0.2</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="C115" s="1">
         <v>195.8</v>
@@ -5210,45 +5231,45 @@
         <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1">
+        <v>580</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K115" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2">
-        <v>45264.0</v>
+        <v>45264</v>
       </c>
       <c r="C116" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>15</v>
@@ -5260,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="I116" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>18</v>
@@ -5269,15 +5290,15 @@
         <v>0.2</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2">
-        <v>45267.0</v>
+        <v>45267</v>
       </c>
       <c r="C117" s="1">
         <v>175.25</v>
@@ -5286,10 +5307,10 @@
         <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>16</v>
@@ -5307,15 +5328,15 @@
         <v>0.2</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2">
-        <v>45270.0</v>
+        <v>45270</v>
       </c>
       <c r="C118" s="1">
         <v>290.3</v>
@@ -5324,36 +5345,36 @@
         <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I118" s="1">
         <v>920.5</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K118" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2">
-        <v>45273.0</v>
+        <v>45273</v>
       </c>
       <c r="C119" s="1">
         <v>230.75</v>
@@ -5365,13 +5386,13 @@
         <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I119" s="1">
         <v>1153.75</v>
@@ -5383,15 +5404,15 @@
         <v>0.2</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2">
-        <v>45276.0</v>
+        <v>45276</v>
       </c>
       <c r="C120" s="1">
         <v>185.9</v>
@@ -5400,36 +5421,36 @@
         <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I120" s="1">
         <v>550.75</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K120" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2">
-        <v>45279.0</v>
+        <v>45279</v>
       </c>
       <c r="C121" s="1">
         <v>310.2</v>
@@ -5438,10 +5459,10 @@
         <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>16</v>
@@ -5450,7 +5471,7 @@
         <v>17</v>
       </c>
       <c r="I121" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>18</v>
@@ -5459,15 +5480,15 @@
         <v>0.2</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2">
-        <v>45282.0</v>
+        <v>45282</v>
       </c>
       <c r="C122" s="1">
         <v>165.45</v>
@@ -5476,36 +5497,36 @@
         <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I122" s="1">
         <v>510.25</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K122" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2">
-        <v>45285.0</v>
+        <v>45285</v>
       </c>
       <c r="C123" s="1">
         <v>280.8</v>
@@ -5514,10 +5535,10 @@
         <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>16</v>
@@ -5526,7 +5547,7 @@
         <v>17</v>
       </c>
       <c r="I123" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>18</v>
@@ -5535,15 +5556,15 @@
         <v>0.2</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2">
-        <v>45288.0</v>
+        <v>45288</v>
       </c>
       <c r="C124" s="1">
         <v>195.25</v>
@@ -5552,36 +5573,36 @@
         <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" s="1">
+        <v>580</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I124" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K124" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2">
-        <v>45291.0</v>
+        <v>45291</v>
       </c>
       <c r="C125" s="1">
         <v>225.6</v>
@@ -5590,19 +5611,19 @@
         <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I125" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>18</v>
@@ -5611,15 +5632,15 @@
         <v>0.2</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2">
-        <v>45294.0</v>
+        <v>45294</v>
       </c>
       <c r="C126" s="1">
         <v>275.3</v>
@@ -5628,36 +5649,36 @@
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I126" s="1">
         <v>890.75</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K126" s="1">
         <v>0.309</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2">
-        <v>45297.0</v>
+        <v>45297</v>
       </c>
       <c r="C127" s="1">
         <v>210.45</v>
@@ -5666,10 +5687,10 @@
         <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>16</v>
@@ -5687,15 +5708,15 @@
         <v>0.2</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="C128" s="1">
         <v>195.8</v>
@@ -5704,48 +5725,48 @@
         <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1">
+        <v>580</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I128" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K128" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="C129" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>16</v>
@@ -5754,7 +5775,7 @@
         <v>17</v>
       </c>
       <c r="I129" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>18</v>
@@ -5763,15 +5784,15 @@
         <v>0.2</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130" s="2">
-        <v>45306.0</v>
+        <v>45306</v>
       </c>
       <c r="C130" s="1">
         <v>175.25</v>
@@ -5780,7 +5801,7 @@
         <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>15</v>
@@ -5801,15 +5822,15 @@
         <v>0.2</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2">
-        <v>45309.0</v>
+        <v>45309</v>
       </c>
       <c r="C131" s="1">
         <v>290.3</v>
@@ -5818,36 +5839,36 @@
         <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H131" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I131" s="1">
         <v>920.5</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K131" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2">
-        <v>45312.0</v>
+        <v>45312</v>
       </c>
       <c r="C132" s="1">
         <v>230.75</v>
@@ -5865,7 +5886,7 @@
         <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I132" s="1">
         <v>1153.75</v>
@@ -5877,15 +5898,15 @@
         <v>0.2</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2">
-        <v>45315.0</v>
+        <v>45315</v>
       </c>
       <c r="C133" s="1">
         <v>185.9</v>
@@ -5894,36 +5915,36 @@
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I133" s="1">
         <v>550.75</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K133" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2">
-        <v>45318.0</v>
+        <v>45318</v>
       </c>
       <c r="C134" s="1">
         <v>310.2</v>
@@ -5932,7 +5953,7 @@
         <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>15</v>
@@ -5944,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="I134" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>18</v>
@@ -5953,15 +5974,15 @@
         <v>0.2</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2">
-        <v>45321.0</v>
+        <v>45321</v>
       </c>
       <c r="C135" s="1">
         <v>165.45</v>
@@ -5970,36 +5991,36 @@
         <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I135" s="1">
         <v>510.25</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K135" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" s="2">
-        <v>45324.0</v>
+        <v>45324</v>
       </c>
       <c r="C136" s="1">
         <v>280.8</v>
@@ -6008,7 +6029,7 @@
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>15</v>
@@ -6020,7 +6041,7 @@
         <v>17</v>
       </c>
       <c r="I136" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>18</v>
@@ -6029,15 +6050,15 @@
         <v>0.2</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2">
-        <v>45327.0</v>
+        <v>45327</v>
       </c>
       <c r="C137" s="1">
         <v>195.25</v>
@@ -6046,36 +6067,36 @@
         <v>13</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1">
+        <v>580</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K137" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" s="2">
-        <v>45330.0</v>
+        <v>45330</v>
       </c>
       <c r="C138" s="1">
         <v>225.6</v>
@@ -6084,7 +6105,7 @@
         <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>15</v>
@@ -6093,10 +6114,10 @@
         <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I138" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>18</v>
@@ -6105,15 +6126,15 @@
         <v>0.2</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" s="2">
-        <v>45333.0</v>
+        <v>45333</v>
       </c>
       <c r="C139" s="1">
         <v>275.3</v>
@@ -6122,36 +6143,36 @@
         <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H139" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I139" s="1">
         <v>890.75</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K139" s="1">
         <v>0.309</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140" s="2">
-        <v>45336.0</v>
+        <v>45336</v>
       </c>
       <c r="C140" s="1">
         <v>210.45</v>
@@ -6160,7 +6181,7 @@
         <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>15</v>
@@ -6181,15 +6202,15 @@
         <v>0.2</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2">
-        <v>45339.0</v>
+        <v>45339</v>
       </c>
       <c r="C141" s="1">
         <v>195.8</v>
@@ -6198,45 +6219,45 @@
         <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1">
+        <v>580</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I141" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K141" s="1">
-        <v>0.3376</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2">
-        <v>45342.0</v>
+        <v>45342</v>
       </c>
       <c r="C142" s="1">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>15</v>
@@ -6248,7 +6269,7 @@
         <v>17</v>
       </c>
       <c r="I142" s="1">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>18</v>
@@ -6257,15 +6278,15 @@
         <v>0.2</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" s="2">
-        <v>45345.0</v>
+        <v>45345</v>
       </c>
       <c r="C143" s="1">
         <v>175.25</v>
@@ -6274,10 +6295,10 @@
         <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>16</v>
@@ -6295,15 +6316,15 @@
         <v>0.2</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2">
-        <v>45348.0</v>
+        <v>45348</v>
       </c>
       <c r="C144" s="1">
         <v>290.3</v>
@@ -6312,36 +6333,36 @@
         <v>13</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I144" s="1">
         <v>920.5</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K144" s="1">
-        <v>0.3154</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" s="2">
-        <v>45351.0</v>
+        <v>45351</v>
       </c>
       <c r="C145" s="1">
         <v>230.75</v>
@@ -6353,13 +6374,13 @@
         <v>14</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I145" s="1">
         <v>1153.75</v>
@@ -6371,15 +6392,15 @@
         <v>0.2</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2">
-        <v>45354.0</v>
+        <v>45354</v>
       </c>
       <c r="C146" s="1">
         <v>185.9</v>
@@ -6388,36 +6409,36 @@
         <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I146" s="1">
         <v>550.75</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K146" s="1">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2">
-        <v>45357.0</v>
+        <v>45357</v>
       </c>
       <c r="C147" s="1">
         <v>310.2</v>
@@ -6426,10 +6447,10 @@
         <v>13</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>16</v>
@@ -6438,7 +6459,7 @@
         <v>17</v>
       </c>
       <c r="I147" s="1">
-        <v>1551.0</v>
+        <v>1551</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>18</v>
@@ -6447,15 +6468,15 @@
         <v>0.2</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B148" s="2">
-        <v>45360.0</v>
+        <v>45360</v>
       </c>
       <c r="C148" s="1">
         <v>165.45</v>
@@ -6464,36 +6485,36 @@
         <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I148" s="1">
         <v>510.25</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K148" s="1">
-        <v>0.3243</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149" s="2">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="C149" s="1">
         <v>280.8</v>
@@ -6502,10 +6523,10 @@
         <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>16</v>
@@ -6514,7 +6535,7 @@
         <v>17</v>
       </c>
       <c r="I149" s="1">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>18</v>
@@ -6523,15 +6544,15 @@
         <v>0.2</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" s="2">
-        <v>45366.0</v>
+        <v>45366</v>
       </c>
       <c r="C150" s="1">
         <v>195.25</v>
@@ -6540,36 +6561,36 @@
         <v>13</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="I150" s="1">
+        <v>580</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I150" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K150" s="1">
-        <v>0.3366</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151" s="2">
-        <v>45369.0</v>
+        <v>45369</v>
       </c>
       <c r="C151" s="1">
         <v>225.6</v>
@@ -6578,19 +6599,19 @@
         <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I151" s="1">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>18</v>
@@ -6599,15 +6620,15 @@
         <v>0.2</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="2">
-        <v>45372.0</v>
+        <v>45372</v>
       </c>
       <c r="C152" s="1">
         <v>275.3</v>
@@ -6616,36 +6637,36 @@
         <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I152" s="1">
         <v>890.75</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K152" s="1">
         <v>0.309</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2">
-        <v>45375.0</v>
+        <v>45375</v>
       </c>
       <c r="C153" s="1">
         <v>210.45</v>
@@ -6654,10 +6675,10 @@
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>16</v>
@@ -6675,15 +6696,15 @@
         <v>0.2</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154" s="2">
-        <v>45378.0</v>
+        <v>45378</v>
       </c>
       <c r="C154" s="1">
         <v>195.8</v>
@@ -6692,862 +6713,860 @@
         <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Transformed Energy SourceData.xlsx
+++ b/Transformed Energy SourceData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etech\RodanXD\ELTpart2\etl_pipeline_schema_mapping (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankun\MydjangoEnv\ELT-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04412A41-37FB-4E83-9604-84672FA5272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D53B83-5630-45A8-985A-464FC0875446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
     <t>INV-ENERGY-2023-153</t>
   </si>
   <si>
-    <t>SAR</t>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L153"/>
     </sheetView>
   </sheetViews>
